--- a/TS3/SampleAgain.xlsx
+++ b/TS3/SampleAgain.xlsx
@@ -1,19 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\puneet.dewani\Desktop\Initial Tasks\TS3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\puneet.dewani\Desktop\Initial Tasks\excelcomparison\TS3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DC9F21D-4F7F-4C7B-80A1-4AD4A43F48E5}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C00BFE5-E6E7-47AE-BB1F-38103390F160}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{883188B0-5FCD-4458-B554-8DB8ECFB882A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{883188B0-5FCD-4458-B554-8DB8ECFB882A}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="MainCopy1" sheetId="1" r:id="rId1"/>
+    <sheet name="MainCopy2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="7" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Puneet</t>
   </si>
@@ -39,7 +41,25 @@
     <t>Akash</t>
   </si>
   <si>
-    <t>ojhiojo</t>
+    <t>Rahul</t>
+  </si>
+  <si>
+    <t>Mahesh</t>
+  </si>
+  <si>
+    <t>Suresh</t>
+  </si>
+  <si>
+    <t>Rajesh</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>j</t>
+  </si>
+  <si>
+    <t>k</t>
   </si>
 </sst>
 </file>
@@ -75,7 +95,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
@@ -391,10 +412,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73631BD6-1FAC-4AB3-879F-0E74B86E10C4}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -411,6 +432,9 @@
       <c r="A2">
         <v>2</v>
       </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
@@ -420,12 +444,84 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4">
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EE2D3AF-3C61-44D0-B388-F9565DF49E88}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1">
         <v>4</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3296E398-270E-495E-9B03-D01E779E98D6}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="1">
         <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
